--- a/pearson_tables/tp_netherlands_cumul-2-3.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5473892447943156</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5062925700752859</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5751180334097553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7350887616922179</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5681584336055187</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6951460824369959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8843739696680345</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7020522213433439</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.599828963281538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7135480168806979</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.629131517185388</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.704107996690594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7870155815695676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7039425300742176</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7006667838507907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6812961422651128</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.751596862110083</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5435778290007712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6873979729441082</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5905538519726845</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5539158431680375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6171401382829651</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5515752702937275</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5329815411133285</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
